--- a/2-1. DB_테이블 명세서/비트마켓 상품관리 황문성 테이블 정의서.xlsx
+++ b/2-1. DB_테이블 명세서/비트마켓 상품관리 황문성 테이블 정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MoonSung\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MoonSung\Desktop\3분기 2팀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD5BE69-F0C2-44C9-B70A-D2CE4D5DFABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB679E7-0555-45C1-872F-83ADF517308D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2AC04615-FAA7-4FB4-A28D-DB0500101E0F}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{2AC04615-FAA7-4FB4-A28D-DB0500101E0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (3)" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="119">
   <si>
     <t>테이블 정의서</t>
   </si>
@@ -198,205 +198,197 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>카테고리명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>categoryName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품의 정보를 관리하는 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품정보명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsInfoName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varcher2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>null 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품정보내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsInfoCon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품정보번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsInfoNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsImage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품의 이미지를 관리하는 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsImageNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsImageName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요, 찜하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsLike</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요(찜하기) 기능을 관리하는 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsLikeNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요현황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품관리에 필요한 테이블 정의서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정할인가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종판매가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정적립금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립비율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cateHighNo</t>
+  </si>
+  <si>
+    <t>cateMidNo</t>
+  </si>
+  <si>
     <t>cateRowNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>categoryName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsInfo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품의 정보를 관리하는 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품정보명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsInfoName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varcher2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>null 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품정보내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsInfoCon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품정보번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsInfoNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품이미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsImage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품의 이미지를 관리하는 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsImageNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsImageName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>InterYard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요, 찜하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsLike</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요(찜하기) 기능을 관리하는 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsLikeNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요현황</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품관리에 필요한 테이블 정의서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대분류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>중분류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소분류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대표이미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세이미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>할인율</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정할인가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종판매가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정적립금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>적립비율</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cateHighNo</t>
-  </si>
-  <si>
-    <t>cateMidNo</t>
-  </si>
-  <si>
-    <t>cateRowNo</t>
   </si>
   <si>
     <t>goodsNo</t>
@@ -408,38 +400,91 @@
     <t>goodsMainImage</t>
   </si>
   <si>
+    <t>goodsContent</t>
+  </si>
+  <si>
+    <t>goodsHit</t>
+  </si>
+  <si>
+    <t>goodsOriPrice</t>
+  </si>
+  <si>
+    <t>goodsDiscRate</t>
+  </si>
+  <si>
+    <t>goodsDiscount</t>
+  </si>
+  <si>
+    <t>goodsPrice</t>
+  </si>
+  <si>
+    <t>goodsSavings</t>
+  </si>
+  <si>
+    <t>goodsCost</t>
+  </si>
+  <si>
+    <t>goodsSaveRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+  </si>
+  <si>
+    <t>goodsStatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsStatusNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsStatusName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>goodsConImage</t>
-  </si>
-  <si>
-    <t>goodsContent</t>
-  </si>
-  <si>
-    <t>goodsHit</t>
-  </si>
-  <si>
-    <t>goodsOriPrice</t>
-  </si>
-  <si>
-    <t>goodsDiscRate</t>
-  </si>
-  <si>
-    <t>goodsDiscount</t>
-  </si>
-  <si>
-    <t>goodsPrice</t>
-  </si>
-  <si>
-    <t>goodsSavings</t>
-  </si>
-  <si>
-    <t>goodsCost</t>
-  </si>
-  <si>
-    <t>goodsSaveRate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsInfo_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsImage_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsLike_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsStatus_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cateLowNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsLikeCheck</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -542,7 +587,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="72">
+  <borders count="75">
     <border>
       <left/>
       <right/>
@@ -1254,19 +1299,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -1487,6 +1519,62 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1497,55 +1585,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1562,15 +1617,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1597,9 +1643,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1627,13 +1670,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1648,30 +1685,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1681,49 +1700,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1765,79 +1751,193 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2174,984 +2274,1201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64355AD5-4811-488F-B3A7-BD86C6B97DDD}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="23.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="24.5" style="48" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="4"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="23.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="56.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="95"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="97"/>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="98">
         <v>45539</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="98"/>
+      <c r="H2" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="97"/>
+      <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11" t="s">
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12" t="s">
+      <c r="I3" s="86"/>
+      <c r="J3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="89"/>
     </row>
     <row r="5" spans="1:10" ht="56.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19" t="s">
+      <c r="B5" s="91"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29" t="s">
+      <c r="B6" s="80"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="17">
         <v>13</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33" t="s">
+      <c r="G6" s="18"/>
+      <c r="H6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="35" t="s">
+      <c r="I6" s="19"/>
+      <c r="J6" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="17">
         <v>300</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="35"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29" t="s">
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="17">
         <v>8</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="35"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40" t="s">
+      <c r="B9" s="83"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="27">
         <v>13</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45" t="s">
+      <c r="H9" s="28"/>
+      <c r="I9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="29" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="47"/>
+      <c r="A10" s="30"/>
     </row>
     <row r="11" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="3"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="95"/>
     </row>
     <row r="12" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="97"/>
+      <c r="C12" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="97"/>
+      <c r="E12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="98">
         <v>45539</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="6" t="s">
+      <c r="G12" s="98"/>
+      <c r="H12" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="9" t="s">
+      <c r="I12" s="97"/>
+      <c r="J12" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="86"/>
+      <c r="C13" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11" t="s">
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12" t="s">
+      <c r="I13" s="86"/>
+      <c r="J13" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="89"/>
     </row>
     <row r="15" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19" t="s">
+      <c r="B15" s="91"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29" t="s">
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="17">
         <v>4</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33" t="s">
+      <c r="G16" s="18"/>
+      <c r="H16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="35" t="s">
+      <c r="I16" s="19"/>
+      <c r="J16" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29" t="s">
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="17">
         <v>4</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33" t="s">
+      <c r="G17" s="18"/>
+      <c r="H17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="35" t="s">
+      <c r="I17" s="19"/>
+      <c r="J17" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29" t="s">
+      <c r="B18" s="80"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="17">
+        <v>4</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="B19" s="83"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="27">
+        <v>300</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+    </row>
+    <row r="21" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="95"/>
+    </row>
+    <row r="22" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="97"/>
+      <c r="E22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="98">
+        <v>45539</v>
+      </c>
+      <c r="G22" s="98"/>
+      <c r="H22" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="97"/>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="86"/>
+      <c r="J23" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="89"/>
+    </row>
+    <row r="25" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="80"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="31">
-        <v>4</v>
-      </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33" t="s">
+      <c r="F26" s="17">
+        <v>13</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="42">
+      <c r="H26" s="21"/>
+      <c r="I26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="80"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="17">
         <v>300</v>
       </c>
-      <c r="G19" s="43" t="s">
+      <c r="G27" s="18"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="80"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="17">
+        <v>300</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="83"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="27">
+        <v>13</v>
+      </c>
+      <c r="G29" s="33"/>
+      <c r="H29" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="46"/>
-    </row>
-    <row r="20" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
-    </row>
-    <row r="21" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="8">
-        <v>45539</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-    </row>
-    <row r="25" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="31">
-        <v>13</v>
-      </c>
-      <c r="G26" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="36"/>
-      <c r="I26" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="31">
-        <v>300</v>
-      </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="31">
-        <v>300</v>
-      </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="42">
-        <v>13</v>
-      </c>
-      <c r="G29" s="52"/>
-      <c r="H29" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="49"/>
-      <c r="J29" s="46"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="29" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="3"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="95"/>
     </row>
     <row r="32" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6" t="s">
+      <c r="B32" s="97"/>
+      <c r="C32" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7" t="s">
+      <c r="D32" s="97"/>
+      <c r="E32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="98">
         <v>45539</v>
       </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="6" t="s">
+      <c r="G32" s="98"/>
+      <c r="H32" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="9" t="s">
+      <c r="I32" s="97"/>
+      <c r="J32" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11" t="s">
+      <c r="B33" s="86"/>
+      <c r="C33" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="86"/>
+      <c r="J33" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="12" t="s">
+    </row>
+    <row r="34" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14" t="s">
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="89"/>
+    </row>
+    <row r="35" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="91"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="80"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="17">
+        <v>13</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="21"/>
+      <c r="I36" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="15"/>
-    </row>
-    <row r="35" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19" t="s">
+      <c r="B37" s="80"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="17">
         <v>13</v>
       </c>
-      <c r="E35" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="31">
-        <v>13</v>
-      </c>
-      <c r="G36" s="50" t="s">
+      <c r="G37" s="18"/>
+      <c r="H37" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="36"/>
-      <c r="I36" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="35"/>
-    </row>
-    <row r="37" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29" t="s">
+      <c r="I37" s="19"/>
+      <c r="J37" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="31">
+      <c r="B38" s="83"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="27">
         <v>300</v>
       </c>
-      <c r="G37" s="32"/>
-      <c r="H37" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
-    </row>
-    <row r="38" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="42">
-        <v>13</v>
-      </c>
-      <c r="G38" s="52"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="46"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="29"/>
     </row>
     <row r="39" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="3"/>
+      <c r="B40" s="94"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="95"/>
     </row>
     <row r="41" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6" t="s">
+      <c r="B41" s="97"/>
+      <c r="C41" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="97"/>
+      <c r="E41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="98">
+        <v>45539</v>
+      </c>
+      <c r="G41" s="98"/>
+      <c r="H41" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="97"/>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="86"/>
+      <c r="C42" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="86"/>
+      <c r="J42" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="7" t="s">
+    </row>
+    <row r="43" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="88"/>
+      <c r="C43" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="89"/>
+    </row>
+    <row r="44" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="91"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="80"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="17">
+        <v>13</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="21"/>
+      <c r="I45" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="80"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="17">
+        <v>30</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="21"/>
+      <c r="I46" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="80"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="17">
+        <v>13</v>
+      </c>
+      <c r="G47" s="18"/>
+      <c r="H47" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="83"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="27">
+        <v>1</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="34"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="94"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="94"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="94"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="95"/>
+    </row>
+    <row r="51" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="97"/>
+      <c r="C51" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="97"/>
+      <c r="E51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F51" s="98">
         <v>45539</v>
       </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="6" t="s">
+      <c r="G51" s="98"/>
+      <c r="H51" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="6"/>
-      <c r="J41" s="9" t="s">
+      <c r="I51" s="97"/>
+      <c r="J51" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
+    <row r="52" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11" t="s">
+      <c r="B52" s="86"/>
+      <c r="C52" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="86"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="H52" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="11"/>
-      <c r="J42" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="13" t="s">
+      <c r="I52" s="86"/>
+      <c r="J52" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="15"/>
-    </row>
-    <row r="44" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
+      <c r="B53" s="88"/>
+      <c r="C53" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="88"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="88"/>
+      <c r="J53" s="89"/>
+    </row>
+    <row r="54" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="19" t="s">
+      <c r="B54" s="91"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E54" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F54" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="22" t="s">
+      <c r="G54" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H44" s="23" t="s">
+      <c r="H54" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="I54" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J44" s="25" t="s">
+      <c r="J54" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="30" t="s">
+    <row r="55" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="80"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="31">
-        <v>13</v>
-      </c>
-      <c r="G45" s="50" t="s">
+      <c r="F55" s="17">
+        <v>2</v>
+      </c>
+      <c r="G55" s="18"/>
+      <c r="H55" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H45" s="36"/>
-      <c r="I45" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="J45" s="35"/>
-    </row>
-    <row r="46" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="31">
-        <v>30</v>
-      </c>
-      <c r="G46" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="36"/>
-      <c r="I46" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46" s="35"/>
-    </row>
-    <row r="47" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="31">
+      <c r="I55" s="19"/>
+      <c r="J55" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="83"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="27">
         <v>300</v>
       </c>
-      <c r="G47" s="32"/>
-      <c r="H47" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="I47" s="34"/>
-      <c r="J47" s="35"/>
-    </row>
-    <row r="48" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" s="42">
-        <v>13</v>
-      </c>
-      <c r="G48" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="54"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="G56" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="H56" s="28"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="29"/>
+    </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:G42"/>
+  <mergeCells count="87">
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:J34"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="C43:J43"/>
@@ -3164,62 +3481,12 @@
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="H41:I41"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3229,466 +3496,485 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D45C4E-82EB-4392-B544-58843EFCDEF9}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScale="70" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.25" style="47" customWidth="1"/>
-    <col min="2" max="2" width="24.625" style="47" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="47"/>
-    <col min="8" max="8" width="24.875" style="47" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="21.25" style="30" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="30"/>
+    <col min="8" max="8" width="24.875" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="56.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="57"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="101"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61">
+      <c r="D2" s="102">
         <v>45540</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63" t="s">
+      <c r="E2" s="103"/>
+      <c r="F2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65" t="s">
+      <c r="G2" s="105"/>
+      <c r="H2" s="38" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70" t="s">
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72" t="s">
+      <c r="G3" s="110"/>
+      <c r="H3" s="40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="111" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="112"/>
+    </row>
+    <row r="5" spans="1:8" ht="56.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="B6" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="52">
+        <v>4</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="54"/>
+      <c r="G6" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="55"/>
+    </row>
+    <row r="7" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75"/>
-    </row>
-    <row r="5" spans="1:8" ht="56.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="77" t="s">
+      <c r="B7" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="58">
+        <v>4</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="59"/>
+      <c r="G7" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="61"/>
+    </row>
+    <row r="8" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="58">
+        <v>4</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="59"/>
+      <c r="G8" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="61"/>
+    </row>
+    <row r="9" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="58">
         <v>13</v>
       </c>
-      <c r="C5" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="82" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="84" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="85" t="s">
+      <c r="E9" s="62"/>
+      <c r="F9" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="117"/>
+      <c r="H9" s="61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="86">
-        <v>4</v>
-      </c>
-      <c r="E6" s="87" t="s">
+      <c r="D10" s="58">
+        <v>2</v>
+      </c>
+      <c r="E10" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="88"/>
-      <c r="G6" s="89" t="s">
+      <c r="F10" s="59"/>
+      <c r="G10" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="90"/>
-    </row>
-    <row r="7" spans="1:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="91" t="s">
+      <c r="H10" s="61"/>
+    </row>
+    <row r="11" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="92" t="s">
+      <c r="B11" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="58">
+        <v>300</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61"/>
+    </row>
+    <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="58">
+        <v>300</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+    </row>
+    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="58">
+        <v>300</v>
+      </c>
+      <c r="E13" s="62"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="63"/>
+    </row>
+    <row r="14" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="58">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="62"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+    </row>
+    <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="93">
-        <v>4</v>
-      </c>
-      <c r="E7" s="91" t="s">
+      <c r="D15" s="58">
+        <v>8</v>
+      </c>
+      <c r="E15" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="94"/>
-      <c r="G7" s="89" t="s">
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="58">
+        <v>8</v>
+      </c>
+      <c r="E16" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="96"/>
-    </row>
-    <row r="8" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="92" t="s">
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="93">
-        <v>4</v>
-      </c>
-      <c r="E8" s="91" t="s">
+      <c r="D17" s="66">
+        <v>3</v>
+      </c>
+      <c r="E17" s="77"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="69"/>
+    </row>
+    <row r="18" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="58">
+        <v>8</v>
+      </c>
+      <c r="E18" s="62"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
+    </row>
+    <row r="19" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="58">
+        <v>8</v>
+      </c>
+      <c r="E19" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="94"/>
-      <c r="G8" s="89" t="s">
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="58">
+        <v>8</v>
+      </c>
+      <c r="E20" s="62"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+    </row>
+    <row r="21" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="58">
+        <v>8</v>
+      </c>
+      <c r="E21" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="96"/>
-    </row>
-    <row r="9" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="92" t="s">
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="93">
-        <v>13</v>
-      </c>
-      <c r="E9" s="97"/>
-      <c r="F9" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="95"/>
-      <c r="H9" s="96"/>
-    </row>
-    <row r="10" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="92" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="93">
-        <v>300</v>
-      </c>
-      <c r="E10" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="94"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="96"/>
-    </row>
-    <row r="11" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="93">
-        <v>300</v>
-      </c>
-      <c r="E11" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="94"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="96"/>
-    </row>
-    <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="91" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="92" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="93">
-        <v>300</v>
-      </c>
-      <c r="E12" s="97"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="98"/>
-    </row>
-    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="92" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="93">
-        <v>3000</v>
-      </c>
-      <c r="E13" s="97"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="96"/>
-    </row>
-    <row r="14" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="91" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="93">
-        <v>8</v>
-      </c>
-      <c r="E14" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="94"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="96" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="93">
-        <v>8</v>
-      </c>
-      <c r="E15" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="94"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="96" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="99" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="100" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="101">
+      <c r="D22" s="72">
         <v>3</v>
       </c>
-      <c r="E16" s="112"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="104"/>
-    </row>
-    <row r="17" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="93">
-        <v>8</v>
-      </c>
-      <c r="E17" s="97"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="96"/>
-    </row>
-    <row r="18" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="93">
-        <v>8</v>
-      </c>
-      <c r="E18" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="94"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="96" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="92" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="93">
-        <v>8</v>
-      </c>
-      <c r="E19" s="97"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="96"/>
-    </row>
-    <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="91" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="92" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="93">
-        <v>8</v>
-      </c>
-      <c r="E20" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="94"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="96" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="105" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="106" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="107">
-        <v>3</v>
-      </c>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="111"/>
-    </row>
-    <row r="22" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="76"/>
+    </row>
     <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
+    <row r="30" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B4:H4"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B4:H4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
